--- a/dados/rec_rgps.xlsx
+++ b/dados/rec_rgps.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="106">
   <si>
     <t>Sankey Receitas por Fonte (com DRU) - RGPS</t>
   </si>
@@ -19,7 +19,7 @@
     <t>Filtro do relatório:</t>
   </si>
   <si>
-    <t>({Mês Lançamento} ({Sigla Completa (MMM/AAAA)}) = "NOV/2021") E ({Item Informação} = 1:PREVISAO INICIAL DA RECEITA) E ({Órgão UGE - Orçam. Fiscal S/N} = PERTENCE) E ({Unidade Orçamentária} = 55902:FUNDO DO REGIME GERAL DA PREVID.SOCIAL-FRGPS, 40904:FUNDO DO REGIME GERAL DA PREVID.SOCIAL- FRGPS, 25917:FUNDO DO REGIME GERAL DE PREVIDENCIA SOCIAL)</t>
+    <t>({Mês Lançamento} ({Sigla Completa (MMM/AAAA)}) = "JAN/2024") E ({Item Informação} = 1:PREVISAO INICIAL DA RECEITA) E ({Órgão UGE - Orçam. Fiscal S/N} = PERTENCE) E ({Unidade Orçamentária} = 55902:FUNDO DO REGIME GERAL DA PREVID.SOCIAL-FRGPS, 40904:FUNDO DO REGIME GERAL DA PREVID.SOCIAL- FRGPS, 25917:FUNDO DO REGIME GERAL DE PREVIDENCIA SOCIAL, 33904:FUNDO DO REGIME GERAL DA PREVIDENCIA SOCIAL)</t>
   </si>
   <si>
     <t>Páginas:</t>
@@ -28,7 +28,7 @@
     <t>Item Informação: 1:PREVISAO INICIAL DA RECEITA</t>
   </si>
   <si>
-    <t>Mês Lançamento: NOV/2021</t>
+    <t>Mês Lançamento: JAN/2024</t>
   </si>
   <si>
     <t>Métrica: Saldo - R$ (Item Informação)</t>
@@ -79,10 +79,16 @@
     <t xml:space="preserve">CONTR.PREV.EMPREGADOR-Ñ OPT.SIMP.NAC.-PRINC.</t>
   </si>
   <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS DO REGIME GERAL DE PREVID.SOCIAL</t>
+    <t xml:space="preserve">054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENEFICIOS DO RGPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12140112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTR.PREV.EMPREGADOR-Ñ OPT.SIMP.NAC.-MUL.JUR</t>
   </si>
   <si>
     <t xml:space="preserve">12140113</t>
@@ -109,34 +115,67 @@
     <t xml:space="preserve">CONT.PREVID.EMPREGADOR-OPT.SIMP.NAC.-MUL.JUR.</t>
   </si>
   <si>
-    <t xml:space="preserve">12140211</t>
+    <t xml:space="preserve">12140123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONT.PREVID.EMPREGADOR-OPT.SIMP.NAC.-DIV.AT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12140124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONT.PREV.EMPREG.-OPT.SIMP.NAC-DIV.AT-MUL.JUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12140201</t>
   </si>
   <si>
     <t xml:space="preserve">CONTRIB.PREVIDENCIARIA DO SEGURADO-PRINC.</t>
   </si>
   <si>
+    <t xml:space="preserve">12140202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRIB.PREVIDENCIARIA DO SEGURADO-MUL.JUR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12140203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRIB.PREVIDENCIARIA DO SEGURADO-DIV.ATIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12140204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONT.PREVIDENCIARIA SEGURADO-DIV.AT-MUL.JUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTRAS CONTRIBUICOES SOCIAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12199911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEM.CONTR.SOC.NAO ARREC.NAO PROJ.RFB-PRINC.</t>
+  </si>
+  <si>
     <t xml:space="preserve">EXPLORACAO PATRIMONIO IMOBILIARIO DO ESTADO</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13100111</t>
+    <t xml:space="preserve">13110111</t>
   </si>
   <si>
     <t xml:space="preserve">ALUGUEIS E ARRENDAMENTOS-PRINCIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.PROPRIOS PRIMARIOS DE LIVRE APLICACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13100112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALUGUEIS E ARRENDAMENTOS-MULTAS E JUROS</t>
+    <t xml:space="preserve">049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC.PROP.UO PARA APLIC. EM SEGURIDADE SOCIAL</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -148,19 +187,13 @@
     <t xml:space="preserve">JUROS E CORRECOES MONETARIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">13210011</t>
+    <t xml:space="preserve">13210101</t>
   </si>
   <si>
     <t xml:space="preserve">REMUNERACAO DE DEPOSITOS BANCARIOS-PRINCIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECURSOS PROPRIOS FINANCEIROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13210031</t>
+    <t xml:space="preserve">13210301</t>
   </si>
   <si>
     <t xml:space="preserve">REMUN.SALDOS RECURSOS NAO-DESEMBOLSADOS-PRINC</t>
@@ -169,7 +202,7 @@
     <t xml:space="preserve">DIVIDENDOS</t>
   </si>
   <si>
-    <t xml:space="preserve">13220011</t>
+    <t xml:space="preserve">13220101</t>
   </si>
   <si>
     <t xml:space="preserve">DIVIDENDOS-PRINCIPAL</t>
@@ -178,13 +211,13 @@
     <t xml:space="preserve">MULTAS ADMINISTRAT., CONTRATUAIS E JUDICIAIS</t>
   </si>
   <si>
-    <t xml:space="preserve">19100111</t>
+    <t xml:space="preserve">19110101</t>
   </si>
   <si>
     <t xml:space="preserve">MULTAS PREVISTAS EM LEGISL.ESPECIFICA-PRINC.</t>
   </si>
   <si>
-    <t xml:space="preserve">19101111</t>
+    <t xml:space="preserve">19111101</t>
   </si>
   <si>
     <t xml:space="preserve">MUL.P/DESCUMP.OBRIG.PREVID.ACESSORIA-PRINC.</t>
@@ -193,16 +226,31 @@
     <t xml:space="preserve">INDENIZACOES, RESTITUICOES E RESSARCIMENTOS</t>
   </si>
   <si>
+    <t xml:space="preserve">INDENIZACOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19219901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTRAS INDENIZACOES-PRINCIPAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">RESTITUICOES</t>
   </si>
   <si>
-    <t xml:space="preserve">19220311</t>
+    <t xml:space="preserve">19220301</t>
   </si>
   <si>
     <t xml:space="preserve">RESTIT.DE BENEFICIOS PREVIDENCIARIOS-PRINC.</t>
   </si>
   <si>
-    <t xml:space="preserve">19229911</t>
+    <t xml:space="preserve">19220302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTIT.DE BENEFICIOS PREVIDENCIARIOS-MUL.JUR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19229901</t>
   </si>
   <si>
     <t xml:space="preserve">OUTRAS RESTITUICOES-PRINCIPAL</t>
@@ -214,58 +262,73 @@
     <t xml:space="preserve">RESSARCIMENTOS</t>
   </si>
   <si>
-    <t xml:space="preserve">19230411</t>
+    <t xml:space="preserve">19230401</t>
   </si>
   <si>
     <t xml:space="preserve">RESSARCIMENTO AO RGPS-PRINCIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
     <t xml:space="preserve">DEMAIS RECEITAS CORRENTES</t>
   </si>
   <si>
-    <t xml:space="preserve">19909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTRAS RECEITAS-PRIMARIAS-MULTAS E JUROS</t>
+    <t xml:space="preserve">OUTRAS RECEITAS CORRENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19990301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPENS.FIN.ENTRE OS REG.DE PREVID.-PRINC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19990302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPENS.FIN.ENTRE OS REG.DE PREVID.-MUL.JUR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19999914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTRAS REC.ARREC.PROJ.PELA RFB-DIV.AT-MUL.JUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19999921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTRAS REC.N.ARREC.N.PROJ.RFB-PRIM.-PRINC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19999922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTRAS REC.N.ARREC.N.PROJ.RFB-PRIM.-MUL.JUR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPERACOES DE CREDITO - MERCADO INTERNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITULOS DE RESPONSAB.DO TES.NAC.-MERC.INTERNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21110101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIT.RESP.TN-MERC.INT.,EXC.REF.DIV.PUB.-PRINC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEM.APL.REC.TIT.TN,EXC.REFIN.DIV.PUB.</t>
   </si>
   <si>
     <t xml:space="preserve">ALIENACAO DE BENS IMOVEIS</t>
   </si>
   <si>
-    <t xml:space="preserve">22200011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALIENACAO DE BENS IMOVEIS-PRINCIPAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.PROP.DECOR.ALIEN.BENS E DIR.DO PATR.PUB.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22200012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALIENACAO DE BENS IMOVEIS-MULTAS E JUROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEMAIS RECEITAS CORRENTES-INTRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79900211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APORTES PERIOD.COMPENSACOES RGPS-PRINC-INTRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC.VINC.A APLIC.EM POLITICAS PUB.ESPECIFICAS</t>
+    <t xml:space="preserve">22210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIENACAO DE BENS IMOVEIS EM GERAL-PRINC.</t>
   </si>
 </sst>
 </file>
@@ -317,11 +380,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="9" max="9" width="31.57142857" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -437,7 +503,7 @@
         <v>23</v>
       </c>
       <c r="I12" s="1">
-        <v>243354412625</v>
+        <v>347683625836</v>
       </c>
     </row>
     <row r="13">
@@ -466,7 +532,7 @@
         <v>23</v>
       </c>
       <c r="I13" s="1">
-        <v>2462106860</v>
+        <v>4072355008</v>
       </c>
     </row>
     <row r="14">
@@ -495,7 +561,7 @@
         <v>23</v>
       </c>
       <c r="I14" s="1">
-        <v>1478327918</v>
+        <v>3375164786</v>
       </c>
     </row>
     <row r="15">
@@ -524,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="I15" s="1">
-        <v>51876743340</v>
+        <v>1054328722</v>
       </c>
     </row>
     <row r="16">
@@ -553,7 +619,7 @@
         <v>23</v>
       </c>
       <c r="I16" s="1">
-        <v>1167495147</v>
+        <v>84424148645</v>
       </c>
     </row>
     <row r="17">
@@ -582,7 +648,7 @@
         <v>23</v>
       </c>
       <c r="I17" s="1">
-        <v>109041127795</v>
+        <v>2302508626</v>
       </c>
     </row>
     <row r="18">
@@ -590,28 +656,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
-      </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1">
-        <v>5575957</v>
+        <v>1349152552</v>
       </c>
     </row>
     <row r="19">
@@ -619,115 +685,115 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I19" s="1">
-        <v>3317</v>
+        <v>432302433</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1">
-        <v>111902698</v>
+        <v>187247231835</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I21" s="1">
-        <v>79832328</v>
+        <v>2048684579</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
-      </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I22" s="1">
-        <v>17634642</v>
+        <v>1612832027</v>
       </c>
     </row>
     <row r="23">
@@ -735,19 +801,19 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
@@ -756,7 +822,7 @@
         <v>23</v>
       </c>
       <c r="I23" s="1">
-        <v>59429041</v>
+        <v>469905045</v>
       </c>
     </row>
     <row r="24">
@@ -764,19 +830,19 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
@@ -785,210 +851,529 @@
         <v>23</v>
       </c>
       <c r="I24" s="1">
-        <v>64412779</v>
+        <v>51176291</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I25" s="1">
-        <v>875120814</v>
+        <v>9650590</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>64</v>
-      </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I26" s="1">
-        <v>2952619</v>
+        <v>294943034</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I27" s="1">
-        <v>22343213</v>
+        <v>153962332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I28" s="1">
-        <v>27990273</v>
+        <v>146353308</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="I29" s="1">
-        <v>19506067</v>
+        <v>11932762</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I30" s="1">
-        <v>197985</v>
+        <v>62257550</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="1">
+        <v>47359</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="1">
+        <v>39616483</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1206152</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s">
         <v>80</v>
       </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3930826</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
         <v>81</v>
       </c>
-      <c r="F31" t="s">
+      <c r="D35" t="s">
         <v>82</v>
       </c>
-      <c r="G31" t="s">
+      <c r="E35" t="s">
         <v>83</v>
       </c>
-      <c r="H31" t="s">
+      <c r="F35" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="1">
-        <v>8145449511</v>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="1">
+        <v>66300171</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="1">
+        <v>985921293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="1">
+        <v>165868</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="1">
+        <v>15209631</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="1">
+        <v>213446</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="1">
+        <v>17816550</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" s="1">
+        <v>179393532461</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="1">
+        <v>556344</v>
       </c>
     </row>
   </sheetData>
